--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/20/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.43</v>
+        <v>-20.63</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.164</v>
+        <v>-22.255</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.334</v>
+        <v>-19.975</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.73</v>
+        <v>-12.489</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.096</v>
+        <v>-22.114</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.712</v>
+        <v>-12.924</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,10 +638,10 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.162</v>
+        <v>-11.338</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.208</v>
+        <v>-7.358</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.040000000000001</v>
+        <v>-8.167000000000002</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.681999999999999</v>
+        <v>-7.805000000000001</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.358</v>
+        <v>-13.232</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.706</v>
+        <v>-21.874</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.794</v>
+        <v>-8.574000000000002</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.650000000000001</v>
+        <v>-7.855</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -768,16 +768,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.946</v>
+        <v>-19.884</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.404</v>
+        <v>-12.203</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.33</v>
+        <v>-7.385999999999998</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.632</v>
+        <v>-20.094</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.614</v>
+        <v>-12.293</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,10 +808,10 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.438</v>
+        <v>-12.8</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.272</v>
+        <v>-7.992</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.21</v>
+        <v>-12.223</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.856</v>
+        <v>-22.033</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.652</v>
+        <v>-21.2</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.604</v>
+        <v>-12.303</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.87</v>
+        <v>-21.954</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.592</v>
+        <v>-21.767</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.506</v>
+        <v>-11.955</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.796000000000001</v>
+        <v>-7.859</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.172</v>
+        <v>-20.132</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.794</v>
+        <v>-12.574</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,10 +1165,10 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.904</v>
+        <v>-12.936</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.006</v>
+        <v>-7.975</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.742</v>
+        <v>-13.116</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.762</v>
+        <v>-13.054</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.954</v>
+        <v>-21.877</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.21</v>
+        <v>-13.631</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.542</v>
+        <v>-8.682</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1284,10 +1284,10 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.108</v>
+        <v>-13.195</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.280000000000001</v>
+        <v>-8.431000000000001</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.502</v>
+        <v>-21.684</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-10.538</v>
+        <v>-11.06</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-21.798</v>
+        <v>-21.988</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.968</v>
+        <v>-21.859</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.86</v>
+        <v>-13.322</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.994</v>
+        <v>-22.242</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-21.888</v>
+        <v>-22.07700000000001</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.332</v>
+        <v>-12.4</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.898</v>
+        <v>-21.684</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.544</v>
+        <v>-11.405</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.196</v>
+        <v>-11.3</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.308</v>
+        <v>-20.685</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.422</v>
+        <v>-21.203</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.772</v>
+        <v>-7.523000000000001</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.052</v>
+        <v>-20.371</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-13.006</v>
+        <v>-12.663</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.922</v>
+        <v>-13.704</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.498</v>
+        <v>-13.759</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.652</v>
+        <v>-21.626</v>
       </c>
       <c r="B92" t="n">
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.34</v>
+        <v>-11.472</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.748</v>
+        <v>-7.711000000000001</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2083,10 +2083,10 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-13.178</v>
+        <v>-12.546</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.458000000000002</v>
+        <v>-8.561000000000002</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.328</v>
+        <v>-7.711000000000001</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.028</v>
+        <v>-22.063</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
